--- a/H0FR72/Released/BOM/H0FR72.xlsx
+++ b/H0FR72/Released/BOM/H0FR72.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0FR7x-Hardware\H0FR72\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66AC54-23C2-4992-99D4-F65F0E3A78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CBF05-728B-4AFC-8256-B845455C3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="255" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2174599</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:rowOff>20002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/H0FR72/Released/BOM/H0FR72.xlsx
+++ b/H0FR72/Released/BOM/H0FR72.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0FR7x-Hardware\H0FR72\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CBF05-728B-4AFC-8256-B845455C3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B794A-4AA1-4056-B292-6F1D2C61A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="255" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H0FR72" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>https://octopart.com/vlmo1300-gs08-vishay-21709200?r=sp</t>
+  </si>
+  <si>
+    <t>GRM21BR6YA106ME43K</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Cap 10UF 35VDC X5R 20% SMD 0805 Embossed Tape</t>
+  </si>
+  <si>
+    <t>https://octopart.com/grm21br6ya106me43k-murata-57368791?r=sp</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1515,39 +1527,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -1555,19 +1567,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -1575,19 +1587,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -1595,79 +1607,79 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="F30" s="16">
         <v>1</v>
@@ -1675,19 +1687,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="F31" s="16">
         <v>1</v>
@@ -1695,19 +1707,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F32" s="16">
         <v>1</v>
@@ -1715,21 +1727,41 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1740,16 +1772,16 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E31" r:id="rId8" xr:uid="{F3DD4184-677E-4B08-BF00-1BD27946DA11}"/>
-    <hyperlink ref="E32" r:id="rId9" xr:uid="{A230C74B-FBBB-4165-B19A-19D18F7101BF}"/>
-    <hyperlink ref="E28" r:id="rId10" xr:uid="{235F6EA1-6A98-4FD3-AA97-79EB21C917DB}"/>
+    <hyperlink ref="E32" r:id="rId8" xr:uid="{F3DD4184-677E-4B08-BF00-1BD27946DA11}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{A230C74B-FBBB-4165-B19A-19D18F7101BF}"/>
+    <hyperlink ref="E29" r:id="rId10" xr:uid="{235F6EA1-6A98-4FD3-AA97-79EB21C917DB}"/>
     <hyperlink ref="E9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/H0FR72/Released/BOM/H0FR72.xlsx
+++ b/H0FR72/Released/BOM/H0FR72.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0FR7x-Hardware\H0FR72\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B794A-4AA1-4056-B292-6F1D2C61A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1EB04-BA45-4165-9198-D4F17DF778CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,18 +95,9 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>87227-1</t>
-  </si>
-  <si>
-    <t>https://octopart.com/87227-1-te+connectivity-39512052?r=sp</t>
-  </si>
-  <si>
     <t>Conn Unshrouded Header HDR 3 POS 2.54mm Solder ST Top Entry Thru-Hole Carton</t>
   </si>
   <si>
@@ -447,13 +438,22 @@
   </si>
   <si>
     <t>https://octopart.com/grm21br6ya106me43k-murata-57368791?r=sp</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings Unshrouded 1 POS T/H</t>
+  </si>
+  <si>
+    <t>5-146280-1</t>
+  </si>
+  <si>
+    <t>https://octopart.com/5-146280-1-te+connectivity+%2F+amp-40259676?r=sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,12 +496,6 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -535,27 +529,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -666,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,20 +662,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -696,71 +684,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,39 +1124,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="2" max="2" width="53.796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="53.796875" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.59765625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="61.59765625" style="15" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="45.6" x14ac:dyDescent="0.75">
       <c r="A2" s="6"/>
-      <c r="B2" s="24"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="21"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
@@ -1179,56 +1163,56 @@
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>49</v>
+      <c r="B5" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="19">
         <v>45234</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>111</v>
+      <c r="B6" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1237,531 +1221,531 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="D12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="C13" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D13" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="28">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="B17" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="B25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="C25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="16">
-        <v>6</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="E34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="F34" s="28">
         <v>1</v>
       </c>
     </row>
@@ -1773,19 +1757,18 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E32" r:id="rId8" xr:uid="{F3DD4184-677E-4B08-BF00-1BD27946DA11}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{A230C74B-FBBB-4165-B19A-19D18F7101BF}"/>
-    <hyperlink ref="E29" r:id="rId10" xr:uid="{235F6EA1-6A98-4FD3-AA97-79EB21C917DB}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E32" r:id="rId7" xr:uid="{F3DD4184-677E-4B08-BF00-1BD27946DA11}"/>
+    <hyperlink ref="E33" r:id="rId8" xr:uid="{A230C74B-FBBB-4165-B19A-19D18F7101BF}"/>
+    <hyperlink ref="E29" r:id="rId9" xr:uid="{235F6EA1-6A98-4FD3-AA97-79EB21C917DB}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>